--- a/data/coded_segments/em_1_1.xlsx
+++ b/data/coded_segments/em_1_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C5F842-ED78-2B44-A95E-DF2D9FCDF928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B65E73-1C3E-9546-9CB9-5F3C73416555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAXQDA 12" sheetId="1" r:id="rId1"/>
@@ -4006,16 +4006,19 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">

--- a/data/coded_segments/em_1_1.xlsx
+++ b/data/coded_segments/em_1_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B65E73-1C3E-9546-9CB9-5F3C73416555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9838A5E8-DC95-3B44-A45D-98CA26488D5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAXQDA 12" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="1312">
   <si>
     <t>Color</t>
   </si>
@@ -3129,18 +3129,6 @@
     <t>08/20/2019 11:07:52</t>
   </si>
   <si>
-    <t>Exclusion:Did not name antibiotic or antibiotic combo used</t>
-  </si>
-  <si>
-    <t>3: 100|267</t>
-  </si>
-  <si>
-    <t>3: 164|378</t>
-  </si>
-  <si>
-    <t>08/20/2019 11:27:10</t>
-  </si>
-  <si>
     <t>08/20/2019 12:12:05</t>
   </si>
   <si>
@@ -3992,6 +3980,21 @@
   </si>
   <si>
     <t>08/20/2019 14:42:57</t>
+  </si>
+  <si>
+    <t>Exclusion: not full text article</t>
+  </si>
+  <si>
+    <t>1: 18</t>
+  </si>
+  <si>
+    <t>Short Communication</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>08/26/2019 10:06:25</t>
   </si>
 </sst>
 </file>
@@ -4006,19 +4009,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4160,56 +4160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="904875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4517,7 +4467,7 @@
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
     <col min="6" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="50.6640625" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
@@ -17357,7 +17307,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>13</v>
       </c>
@@ -17368,32 +17318,34 @@
         <v>14</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1017</v>
+        <v>828</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H314" s="3">
+        <v>0</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J314" s="3">
+        <v>8</v>
+      </c>
+      <c r="K314" s="4">
+        <v>9.0049527239981983E-2</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M314" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H314" s="3">
-        <v>0</v>
-      </c>
-      <c r="I314" s="1"/>
-      <c r="J314" s="3">
-        <v>16830</v>
-      </c>
-      <c r="K314" s="4">
-        <v>0.3069591076846474</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17407,34 +17359,34 @@
         <v>14</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>828</v>
+        <v>1026</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1003</v>
+        <v>42</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>911</v>
+        <v>1027</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>912</v>
+        <v>1028</v>
       </c>
       <c r="H315" s="3">
         <v>0</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>271</v>
+        <v>1029</v>
       </c>
       <c r="J315" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K315" s="4">
-        <v>9.0049527239981983E-2</v>
+        <v>4.3872477332553381E-2</v>
       </c>
       <c r="L315" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17448,10 +17400,10 @@
         <v>14</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>1031</v>
@@ -17466,10 +17418,10 @@
         <v>1033</v>
       </c>
       <c r="J316" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K316" s="4">
-        <v>4.3872477332553381E-2</v>
+        <v>5.8496636443404505E-2</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>20</v>
@@ -17489,10 +17441,10 @@
         <v>14</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>1035</v>
@@ -17504,19 +17456,19 @@
         <v>0</v>
       </c>
       <c r="I317" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J317" s="3">
+        <v>16</v>
+      </c>
+      <c r="K317" s="4">
+        <v>0.23398654577361802</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M317" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="J317" s="3">
-        <v>4</v>
-      </c>
-      <c r="K317" s="4">
-        <v>5.8496636443404505E-2</v>
-      </c>
-      <c r="L317" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M317" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="318" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17530,34 +17482,34 @@
         <v>14</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F318" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H318" s="3">
+        <v>0</v>
+      </c>
+      <c r="I318" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="G318" s="1" t="s">
+      <c r="J318" s="3">
+        <v>5</v>
+      </c>
+      <c r="K318" s="4">
+        <v>7.312079555425563E-2</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M318" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="H318" s="3">
-        <v>0</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="J318" s="3">
-        <v>16</v>
-      </c>
-      <c r="K318" s="4">
-        <v>0.23398654577361802</v>
-      </c>
-      <c r="L318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="319" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17571,13 +17523,13 @@
         <v>14</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>805</v>
+        <v>1041</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>1042</v>
@@ -17589,10 +17541,10 @@
         <v>1043</v>
       </c>
       <c r="J319" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K319" s="4">
-        <v>7.312079555425563E-2</v>
+        <v>5.8496636443404505E-2</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>20</v>
@@ -17612,22 +17564,22 @@
         <v>14</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H320" s="3">
         <v>0</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="J320" s="3">
         <v>4</v>
@@ -17639,7 +17591,7 @@
         <v>20</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17653,28 +17605,28 @@
         <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="H321" s="3">
         <v>0</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J321" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K321" s="4">
-        <v>5.8496636443404505E-2</v>
+        <v>0.33635565954957586</v>
       </c>
       <c r="L321" s="1" t="s">
         <v>20</v>
@@ -17694,10 +17646,10 @@
         <v>14</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>1050</v>
@@ -17712,10 +17664,10 @@
         <v>1052</v>
       </c>
       <c r="J322" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K322" s="4">
-        <v>0.33635565954957586</v>
+        <v>0.17548990933021352</v>
       </c>
       <c r="L322" s="1" t="s">
         <v>20</v>
@@ -17735,10 +17687,10 @@
         <v>14</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>1054</v>
@@ -17753,10 +17705,10 @@
         <v>1056</v>
       </c>
       <c r="J323" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K323" s="4">
-        <v>0.17548990933021352</v>
+        <v>0.11699327288680901</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>20</v>
@@ -17765,7 +17717,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>13</v>
       </c>
@@ -17776,37 +17728,37 @@
         <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>47</v>
+        <v>634</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H324" s="3">
         <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J324" s="3">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="K324" s="4">
-        <v>0.11699327288680901</v>
+        <v>1.4210217263652378</v>
       </c>
       <c r="L324" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>13</v>
       </c>
@@ -17817,34 +17769,34 @@
         <v>14</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>634</v>
+        <v>1064</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1063</v>
+        <v>786</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="H325" s="3">
         <v>0</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="J325" s="3">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="K325" s="4">
-        <v>1.4210217263652378</v>
+        <v>9.3632958801498134E-2</v>
       </c>
       <c r="L325" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17858,34 +17810,34 @@
         <v>14</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1068</v>
+        <v>66</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>786</v>
+        <v>1069</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H326" s="3">
         <v>0</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J326" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K326" s="4">
-        <v>9.3632958801498134E-2</v>
+        <v>1.1802891708468575E-2</v>
       </c>
       <c r="L326" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17899,10 +17851,10 @@
         <v>14</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>1073</v>
@@ -17917,10 +17869,10 @@
         <v>1075</v>
       </c>
       <c r="J327" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K327" s="4">
-        <v>1.1802891708468575E-2</v>
+        <v>2.9507229271171435E-2</v>
       </c>
       <c r="L327" s="1" t="s">
         <v>20</v>
@@ -17940,10 +17892,10 @@
         <v>14</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>71</v>
+        <v>701</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>1077</v>
@@ -17958,10 +17910,10 @@
         <v>1079</v>
       </c>
       <c r="J328" s="3">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K328" s="4">
-        <v>2.9507229271171435E-2</v>
+        <v>0.21835349660666864</v>
       </c>
       <c r="L328" s="1" t="s">
         <v>20</v>
@@ -17981,7 +17933,7 @@
         <v>14</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>701</v>
@@ -17999,10 +17951,10 @@
         <v>1083</v>
       </c>
       <c r="J329" s="3">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K329" s="4">
-        <v>0.21835349660666864</v>
+        <v>6.4915904396577156E-2</v>
       </c>
       <c r="L329" s="1" t="s">
         <v>20</v>
@@ -18022,10 +17974,10 @@
         <v>14</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>701</v>
+        <v>140</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>1085</v>
@@ -18040,10 +17992,10 @@
         <v>1087</v>
       </c>
       <c r="J330" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K330" s="4">
-        <v>6.4915904396577156E-2</v>
+        <v>7.0817350250811456E-2</v>
       </c>
       <c r="L330" s="1" t="s">
         <v>20</v>
@@ -18063,10 +18015,10 @@
         <v>14</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>1089</v>
@@ -18081,10 +18033,10 @@
         <v>1091</v>
       </c>
       <c r="J331" s="3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K331" s="4">
-        <v>7.0817350250811456E-2</v>
+        <v>0.15343759221009146</v>
       </c>
       <c r="L331" s="1" t="s">
         <v>20</v>
@@ -18104,10 +18056,10 @@
         <v>14</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>1093</v>
@@ -18122,10 +18074,10 @@
         <v>1095</v>
       </c>
       <c r="J332" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K332" s="4">
-        <v>0.15343759221009146</v>
+        <v>2.360578341693715E-2</v>
       </c>
       <c r="L332" s="1" t="s">
         <v>20</v>
@@ -18145,10 +18097,10 @@
         <v>14</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>1097</v>
@@ -18163,10 +18115,10 @@
         <v>1099</v>
       </c>
       <c r="J333" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K333" s="4">
-        <v>2.360578341693715E-2</v>
+        <v>5.9014458542342871E-2</v>
       </c>
       <c r="L333" s="1" t="s">
         <v>20</v>
@@ -18186,7 +18138,7 @@
         <v>14</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>47</v>
@@ -18201,19 +18153,19 @@
         <v>0</v>
       </c>
       <c r="I334" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="J334" s="3">
+        <v>9</v>
+      </c>
+      <c r="K334" s="4">
+        <v>5.3113012688108585E-2</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M334" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="J334" s="3">
-        <v>10</v>
-      </c>
-      <c r="K334" s="4">
-        <v>5.9014458542342871E-2</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M334" s="1" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18227,34 +18179,34 @@
         <v>14</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F335" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G335" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="H335" s="3">
+        <v>0</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J335" s="3">
+        <v>12</v>
+      </c>
+      <c r="K335" s="4">
+        <v>7.0817350250811456E-2</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M335" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="H335" s="3">
-        <v>0</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="J335" s="3">
-        <v>9</v>
-      </c>
-      <c r="K335" s="4">
-        <v>5.3113012688108585E-2</v>
-      </c>
-      <c r="L335" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M335" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18268,34 +18220,34 @@
         <v>14</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F336" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="G336" s="1" t="s">
+      <c r="H336" s="3">
+        <v>0</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="J336" s="3">
+        <v>5</v>
+      </c>
+      <c r="K336" s="4">
+        <v>2.9507229271171435E-2</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M336" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="H336" s="3">
-        <v>0</v>
-      </c>
-      <c r="I336" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="J336" s="3">
-        <v>12</v>
-      </c>
-      <c r="K336" s="4">
-        <v>7.0817350250811456E-2</v>
-      </c>
-      <c r="L336" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M336" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18309,10 +18261,10 @@
         <v>14</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>1072</v>
+        <v>1110</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>1111</v>
@@ -18324,19 +18276,19 @@
         <v>0</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>555</v>
+        <v>1113</v>
       </c>
       <c r="J337" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K337" s="4">
-        <v>2.9507229271171435E-2</v>
+        <v>1.0421008753647354E-2</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18350,10 +18302,10 @@
         <v>14</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>1115</v>
@@ -18365,54 +18317,54 @@
         <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J338" s="3">
+        <v>5</v>
+      </c>
+      <c r="K338" s="4">
+        <v>2.6052521884118385E-2</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M338" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="J338" s="3">
-        <v>2</v>
-      </c>
-      <c r="K338" s="4">
-        <v>1.0421008753647354E-2</v>
-      </c>
-      <c r="L338" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A339" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F339" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A339" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F339" s="1" t="s">
+      <c r="G339" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="H339" s="3">
+        <v>0</v>
+      </c>
+      <c r="I339" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="H339" s="3">
-        <v>0</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>1079</v>
-      </c>
       <c r="J339" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K339" s="4">
-        <v>2.6052521884118385E-2</v>
+        <v>0.11463109629012089</v>
       </c>
       <c r="L339" s="1" t="s">
         <v>20</v>
@@ -18421,7 +18373,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>13</v>
       </c>
@@ -18432,10 +18384,10 @@
         <v>14</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>1122</v>
@@ -18450,10 +18402,10 @@
         <v>1124</v>
       </c>
       <c r="J340" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K340" s="4">
-        <v>0.11463109629012089</v>
+        <v>9.3789078782826177E-2</v>
       </c>
       <c r="L340" s="1" t="s">
         <v>20</v>
@@ -18473,10 +18425,10 @@
         <v>14</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>1126</v>
@@ -18491,10 +18443,10 @@
         <v>1128</v>
       </c>
       <c r="J341" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K341" s="4">
-        <v>9.3789078782826177E-2</v>
+        <v>6.2526052521884118E-2</v>
       </c>
       <c r="L341" s="1" t="s">
         <v>20</v>
@@ -18514,10 +18466,10 @@
         <v>14</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>1130</v>
@@ -18532,10 +18484,10 @@
         <v>1132</v>
       </c>
       <c r="J342" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K342" s="4">
-        <v>6.2526052521884118E-2</v>
+        <v>2.0842017507294707E-2</v>
       </c>
       <c r="L342" s="1" t="s">
         <v>20</v>
@@ -18555,22 +18507,22 @@
         <v>14</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H343" s="3">
         <v>0</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="J343" s="3">
         <v>4</v>
@@ -18582,7 +18534,7 @@
         <v>20</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18596,34 +18548,34 @@
         <v>14</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="G344" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H344" s="3">
+        <v>0</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J344" s="3">
+        <v>12</v>
+      </c>
+      <c r="K344" s="4">
+        <v>6.2526052521884118E-2</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M344" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="H344" s="3">
-        <v>0</v>
-      </c>
-      <c r="I344" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J344" s="3">
-        <v>4</v>
-      </c>
-      <c r="K344" s="4">
-        <v>2.0842017507294707E-2</v>
-      </c>
-      <c r="L344" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M344" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18637,34 +18589,34 @@
         <v>14</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="H345" s="3">
         <v>0</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>1132</v>
+        <v>366</v>
       </c>
       <c r="J345" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K345" s="4">
-        <v>6.2526052521884118E-2</v>
+        <v>6.7736556898707792E-2</v>
       </c>
       <c r="L345" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18678,16 +18630,16 @@
         <v>14</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H346" s="3">
         <v>0</v>
@@ -18705,7 +18657,7 @@
         <v>20</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18719,7 +18671,7 @@
         <v>14</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>88</v>
@@ -18734,13 +18686,13 @@
         <v>0</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>366</v>
+        <v>1142</v>
       </c>
       <c r="J347" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K347" s="4">
-        <v>6.7736556898707792E-2</v>
+        <v>1.5631513130471029E-2</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>20</v>
@@ -18760,22 +18712,22 @@
         <v>14</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="H348" s="3">
         <v>0</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J348" s="3">
         <v>3</v>
@@ -18787,7 +18739,7 @@
         <v>20</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18801,28 +18753,28 @@
         <v>14</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H349" s="3">
         <v>0</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J349" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K349" s="4">
-        <v>1.5631513130471029E-2</v>
+        <v>6.2526052521884118E-2</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>20</v>
@@ -18842,10 +18794,10 @@
         <v>14</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>1149</v>
@@ -18860,10 +18812,10 @@
         <v>1151</v>
       </c>
       <c r="J350" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K350" s="4">
-        <v>6.2526052521884118E-2</v>
+        <v>1.0421008753647354E-2</v>
       </c>
       <c r="L350" s="1" t="s">
         <v>20</v>
@@ -18883,10 +18835,10 @@
         <v>14</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>1153</v>
@@ -18901,10 +18853,10 @@
         <v>1155</v>
       </c>
       <c r="J351" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K351" s="4">
-        <v>1.0421008753647354E-2</v>
+        <v>0.1094205919132972</v>
       </c>
       <c r="L351" s="1" t="s">
         <v>20</v>
@@ -18924,34 +18876,34 @@
         <v>14</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="G352" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H352" s="3">
+        <v>0</v>
+      </c>
+      <c r="I352" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="H352" s="3">
-        <v>0</v>
-      </c>
-      <c r="I352" s="2" t="s">
+      <c r="J352" s="3">
+        <v>5</v>
+      </c>
+      <c r="K352" s="4">
+        <v>2.6052521884118385E-2</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M352" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="J352" s="3">
-        <v>21</v>
-      </c>
-      <c r="K352" s="4">
-        <v>0.1094205919132972</v>
-      </c>
-      <c r="L352" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M352" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18965,7 +18917,7 @@
         <v>14</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1114</v>
+        <v>1160</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>27</v>
@@ -18974,28 +18926,28 @@
         <v>1161</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>840</v>
+        <v>1162</v>
       </c>
       <c r="H353" s="3">
         <v>0</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="J353" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K353" s="4">
-        <v>2.6052521884118385E-2</v>
+        <v>4.1027043659612294E-2</v>
       </c>
       <c r="L353" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>13</v>
       </c>
@@ -19006,10 +18958,10 @@
         <v>14</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>1165</v>
@@ -19024,10 +18976,10 @@
         <v>1167</v>
       </c>
       <c r="J354" s="3">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K354" s="4">
-        <v>4.1027043659612294E-2</v>
+        <v>0.14701357311361071</v>
       </c>
       <c r="L354" s="1" t="s">
         <v>20</v>
@@ -19036,7 +18988,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>13</v>
       </c>
@@ -19047,10 +18999,10 @@
         <v>14</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>1169</v>
@@ -19065,10 +19017,10 @@
         <v>1171</v>
       </c>
       <c r="J355" s="3">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="K355" s="4">
-        <v>0.14701357311361071</v>
+        <v>3.0770282744709221E-2</v>
       </c>
       <c r="L355" s="1" t="s">
         <v>20</v>
@@ -19088,10 +19040,10 @@
         <v>14</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>1173</v>
@@ -19106,10 +19058,10 @@
         <v>1175</v>
       </c>
       <c r="J356" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K356" s="4">
-        <v>3.0770282744709221E-2</v>
+        <v>3.418920304967691E-2</v>
       </c>
       <c r="L356" s="1" t="s">
         <v>20</v>
@@ -19129,10 +19081,10 @@
         <v>14</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>1177</v>
@@ -19147,10 +19099,10 @@
         <v>1179</v>
       </c>
       <c r="J357" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K357" s="4">
-        <v>3.418920304967691E-2</v>
+        <v>4.1027043659612294E-2</v>
       </c>
       <c r="L357" s="1" t="s">
         <v>20</v>
@@ -19170,10 +19122,10 @@
         <v>14</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>1181</v>
@@ -19185,19 +19137,19 @@
         <v>0</v>
       </c>
       <c r="I358" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J358" s="3">
+        <v>4</v>
+      </c>
+      <c r="K358" s="4">
+        <v>1.3675681219870766E-2</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M358" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="J358" s="3">
-        <v>12</v>
-      </c>
-      <c r="K358" s="4">
-        <v>4.1027043659612294E-2</v>
-      </c>
-      <c r="L358" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M358" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19211,28 +19163,28 @@
         <v>14</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F359" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="G359" s="1" t="s">
+      <c r="H359" s="3">
+        <v>0</v>
+      </c>
+      <c r="I359" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H359" s="3">
-        <v>0</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="J359" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K359" s="4">
-        <v>1.3675681219870766E-2</v>
+        <v>3.418920304967691E-2</v>
       </c>
       <c r="L359" s="1" t="s">
         <v>20</v>
@@ -19252,34 +19204,34 @@
         <v>14</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>1164</v>
+        <v>1188</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H360" s="3">
         <v>0</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J360" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K360" s="4">
-        <v>3.418920304967691E-2</v>
+        <v>4.6755675619512702E-2</v>
       </c>
       <c r="L360" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19293,7 +19245,7 @@
         <v>14</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>47</v>
@@ -19308,19 +19260,19 @@
         <v>0</v>
       </c>
       <c r="I361" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J361" s="3">
+        <v>10</v>
+      </c>
+      <c r="K361" s="4">
+        <v>5.1950750688347445E-2</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M361" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="J361" s="3">
-        <v>9</v>
-      </c>
-      <c r="K361" s="4">
-        <v>4.6755675619512702E-2</v>
-      </c>
-      <c r="L361" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M361" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19334,28 +19286,28 @@
         <v>14</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F362" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G362" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="G362" s="1" t="s">
+      <c r="H362" s="3">
+        <v>0</v>
+      </c>
+      <c r="I362" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="H362" s="3">
-        <v>0</v>
-      </c>
-      <c r="I362" s="2" t="s">
-        <v>1179</v>
-      </c>
       <c r="J362" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K362" s="4">
-        <v>5.1950750688347445E-2</v>
+        <v>0.10390150137669489</v>
       </c>
       <c r="L362" s="1" t="s">
         <v>20</v>
@@ -19375,10 +19327,10 @@
         <v>14</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>1200</v>
@@ -19393,10 +19345,10 @@
         <v>1202</v>
       </c>
       <c r="J363" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K363" s="4">
-        <v>0.10390150137669489</v>
+        <v>3.6365525481843214E-2</v>
       </c>
       <c r="L363" s="1" t="s">
         <v>20</v>
@@ -19416,10 +19368,10 @@
         <v>14</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>1204</v>
@@ -19434,10 +19386,10 @@
         <v>1206</v>
       </c>
       <c r="J364" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K364" s="4">
-        <v>3.6365525481843214E-2</v>
+        <v>4.1560600550677958E-2</v>
       </c>
       <c r="L364" s="1" t="s">
         <v>20</v>
@@ -19457,10 +19409,10 @@
         <v>14</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>1208</v>
@@ -19472,19 +19424,19 @@
         <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J365" s="3">
+        <v>4</v>
+      </c>
+      <c r="K365" s="4">
+        <v>2.0780300275338979E-2</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M365" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="J365" s="3">
-        <v>8</v>
-      </c>
-      <c r="K365" s="4">
-        <v>4.1560600550677958E-2</v>
-      </c>
-      <c r="L365" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M365" s="1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19498,10 +19450,10 @@
         <v>14</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>1212</v>
@@ -19513,13 +19465,13 @@
         <v>0</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>362</v>
+        <v>1056</v>
       </c>
       <c r="J366" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K366" s="4">
-        <v>2.0780300275338979E-2</v>
+        <v>4.5701228220508427E-2</v>
       </c>
       <c r="L366" s="1" t="s">
         <v>20</v>
@@ -19528,7 +19480,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>13</v>
       </c>
@@ -19539,28 +19491,28 @@
         <v>14</v>
       </c>
       <c r="D367" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F367" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F367" s="1" t="s">
+      <c r="G367" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="H367" s="3">
+        <v>0</v>
+      </c>
+      <c r="I367" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="H367" s="3">
-        <v>0</v>
-      </c>
-      <c r="I367" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="J367" s="3">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="K367" s="4">
-        <v>4.5701228220508427E-2</v>
+        <v>0.96543844615824048</v>
       </c>
       <c r="L367" s="1" t="s">
         <v>20</v>
@@ -19569,7 +19521,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>13</v>
       </c>
@@ -19580,37 +19532,37 @@
         <v>14</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1068</v>
+        <v>634</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H368" s="3">
         <v>0</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="J368" s="3">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="K368" s="4">
-        <v>0.96543844615824048</v>
+        <v>0.77412910475714825</v>
       </c>
       <c r="L368" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>13</v>
       </c>
@@ -19621,34 +19573,34 @@
         <v>14</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>634</v>
+        <v>56</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H369" s="3">
         <v>0</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="J369" s="3">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="K369" s="4">
-        <v>0.77412910475714825</v>
+        <v>9.5602294455066919E-2</v>
       </c>
       <c r="L369" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19662,10 +19614,10 @@
         <v>14</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>1229</v>
@@ -19680,10 +19632,10 @@
         <v>1231</v>
       </c>
       <c r="J370" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K370" s="4">
-        <v>9.5602294455066919E-2</v>
+        <v>2.7314941272876262E-2</v>
       </c>
       <c r="L370" s="1" t="s">
         <v>20</v>
@@ -19703,7 +19655,7 @@
         <v>14</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>27</v>
@@ -19744,10 +19696,10 @@
         <v>14</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>1237</v>
@@ -19762,10 +19714,10 @@
         <v>1239</v>
       </c>
       <c r="J372" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K372" s="4">
-        <v>2.7314941272876262E-2</v>
+        <v>0.10470727487935901</v>
       </c>
       <c r="L372" s="1" t="s">
         <v>20</v>
@@ -19785,7 +19737,7 @@
         <v>14</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>47</v>
@@ -19800,19 +19752,19 @@
         <v>0</v>
       </c>
       <c r="I373" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J373" s="3">
+        <v>9</v>
+      </c>
+      <c r="K373" s="4">
+        <v>4.0972411909314395E-2</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M373" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="J373" s="3">
-        <v>23</v>
-      </c>
-      <c r="K373" s="4">
-        <v>0.10470727487935901</v>
-      </c>
-      <c r="L373" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M373" s="1" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19826,34 +19778,34 @@
         <v>14</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F374" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G374" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="G374" s="1" t="s">
+      <c r="H374" s="3">
+        <v>0</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J374" s="3">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4">
+        <v>5.0077392333606488E-2</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M374" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="H374" s="3">
-        <v>0</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J374" s="3">
-        <v>9</v>
-      </c>
-      <c r="K374" s="4">
-        <v>4.0972411909314395E-2</v>
-      </c>
-      <c r="L374" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M374" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19867,34 +19819,34 @@
         <v>14</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F375" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G375" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="H375" s="3">
+        <v>0</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J375" s="3">
+        <v>10</v>
+      </c>
+      <c r="K375" s="4">
+        <v>4.5524902121460438E-2</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M375" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="H375" s="3">
-        <v>0</v>
-      </c>
-      <c r="I375" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J375" s="3">
-        <v>11</v>
-      </c>
-      <c r="K375" s="4">
-        <v>5.0077392333606488E-2</v>
-      </c>
-      <c r="L375" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M375" s="1" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19908,28 +19860,28 @@
         <v>14</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F376" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G376" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="G376" s="1" t="s">
+      <c r="H376" s="3">
+        <v>0</v>
+      </c>
+      <c r="I376" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="H376" s="3">
-        <v>0</v>
-      </c>
-      <c r="I376" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="J376" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K376" s="4">
-        <v>4.5524902121460438E-2</v>
+        <v>0.11836474551579713</v>
       </c>
       <c r="L376" s="1" t="s">
         <v>20</v>
@@ -19949,7 +19901,7 @@
         <v>14</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>47</v>
@@ -19964,19 +19916,19 @@
         <v>0</v>
       </c>
       <c r="I377" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J377" s="3">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4">
+        <v>5.0077392333606488E-2</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M377" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="J377" s="3">
-        <v>26</v>
-      </c>
-      <c r="K377" s="4">
-        <v>0.11836474551579713</v>
-      </c>
-      <c r="L377" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M377" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19990,28 +19942,28 @@
         <v>14</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F378" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G378" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="G378" s="1" t="s">
+      <c r="H378" s="3">
+        <v>0</v>
+      </c>
+      <c r="I378" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="H378" s="3">
-        <v>0</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="J378" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K378" s="4">
-        <v>5.0077392333606488E-2</v>
+        <v>0.12291723572794319</v>
       </c>
       <c r="L378" s="1" t="s">
         <v>20</v>
@@ -20031,7 +19983,7 @@
         <v>14</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>47</v>
@@ -20049,10 +20001,10 @@
         <v>1263</v>
       </c>
       <c r="J379" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K379" s="4">
-        <v>0.12291723572794319</v>
+        <v>0.10925976509150505</v>
       </c>
       <c r="L379" s="1" t="s">
         <v>20</v>
@@ -20072,7 +20024,7 @@
         <v>14</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>47</v>
@@ -20090,10 +20042,10 @@
         <v>1267</v>
       </c>
       <c r="J380" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K380" s="4">
-        <v>0.10925976509150505</v>
+        <v>9.5602294455066919E-2</v>
       </c>
       <c r="L380" s="1" t="s">
         <v>20</v>
@@ -20113,7 +20065,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>47</v>
@@ -20131,10 +20083,10 @@
         <v>1271</v>
       </c>
       <c r="J381" s="3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K381" s="4">
-        <v>9.5602294455066919E-2</v>
+        <v>4.0972411909314395E-2</v>
       </c>
       <c r="L381" s="1" t="s">
         <v>20</v>
@@ -20154,7 +20106,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>47</v>
@@ -20169,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>1275</v>
+        <v>389</v>
       </c>
       <c r="J382" s="3">
         <v>9</v>
@@ -20181,7 +20133,7 @@
         <v>20</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20195,10 +20147,10 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>47</v>
+        <v>1276</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>1277</v>
@@ -20210,13 +20162,13 @@
         <v>0</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>389</v>
+        <v>116</v>
       </c>
       <c r="J383" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K383" s="4">
-        <v>4.0972411909314395E-2</v>
+        <v>2.7314941272876262E-2</v>
       </c>
       <c r="L383" s="1" t="s">
         <v>20</v>
@@ -20236,22 +20188,22 @@
         <v>14</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E384" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F384" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="F384" s="1" t="s">
+      <c r="G384" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="G384" s="1" t="s">
+      <c r="H384" s="3">
+        <v>0</v>
+      </c>
+      <c r="I384" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="H384" s="3">
-        <v>0</v>
-      </c>
-      <c r="I384" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J384" s="3">
         <v>6</v>
@@ -20277,10 +20229,10 @@
         <v>14</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1280</v>
+        <v>47</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>1284</v>
@@ -20292,19 +20244,19 @@
         <v>0</v>
       </c>
       <c r="I385" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J385" s="3">
+        <v>8</v>
+      </c>
+      <c r="K385" s="4">
+        <v>3.6419921697168352E-2</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M385" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="J385" s="3">
-        <v>6</v>
-      </c>
-      <c r="K385" s="4">
-        <v>2.7314941272876262E-2</v>
-      </c>
-      <c r="L385" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M385" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20318,34 +20270,34 @@
         <v>14</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F386" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G386" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="G386" s="1" t="s">
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J386" s="3">
+        <v>9</v>
+      </c>
+      <c r="K386" s="4">
+        <v>4.0972411909314395E-2</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M386" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="H386" s="3">
-        <v>0</v>
-      </c>
-      <c r="I386" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J386" s="3">
-        <v>8</v>
-      </c>
-      <c r="K386" s="4">
-        <v>3.6419921697168352E-2</v>
-      </c>
-      <c r="L386" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M386" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20359,34 +20311,34 @@
         <v>14</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F387" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G387" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="G387" s="1" t="s">
+      <c r="H387" s="3">
+        <v>0</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J387" s="3">
+        <v>13</v>
+      </c>
+      <c r="K387" s="4">
+        <v>5.9182372757898567E-2</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M387" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="H387" s="3">
-        <v>0</v>
-      </c>
-      <c r="I387" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J387" s="3">
-        <v>9</v>
-      </c>
-      <c r="K387" s="4">
-        <v>4.0972411909314395E-2</v>
-      </c>
-      <c r="L387" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M387" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20400,34 +20352,34 @@
         <v>14</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F388" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G388" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="G388" s="1" t="s">
+      <c r="H388" s="3">
+        <v>0</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J388" s="3">
+        <v>8</v>
+      </c>
+      <c r="K388" s="4">
+        <v>3.6419921697168352E-2</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M388" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="H388" s="3">
-        <v>0</v>
-      </c>
-      <c r="I388" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J388" s="3">
-        <v>13</v>
-      </c>
-      <c r="K388" s="4">
-        <v>5.9182372757898567E-2</v>
-      </c>
-      <c r="L388" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M388" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20441,28 +20393,28 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F389" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G389" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="G389" s="1" t="s">
+      <c r="H389" s="3">
+        <v>0</v>
+      </c>
+      <c r="I389" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="H389" s="3">
-        <v>0</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="J389" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K389" s="4">
-        <v>3.6419921697168352E-2</v>
+        <v>4.5524902121460438E-2</v>
       </c>
       <c r="L389" s="1" t="s">
         <v>20</v>
@@ -20482,7 +20434,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>47</v>
@@ -20497,19 +20449,19 @@
         <v>0</v>
       </c>
       <c r="I390" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J390" s="3">
+        <v>8</v>
+      </c>
+      <c r="K390" s="4">
+        <v>3.6419921697168352E-2</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M390" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="J390" s="3">
-        <v>10</v>
-      </c>
-      <c r="K390" s="4">
-        <v>4.5524902121460438E-2</v>
-      </c>
-      <c r="L390" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M390" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20523,28 +20475,28 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F391" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G391" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="G391" s="1" t="s">
+      <c r="H391" s="3">
+        <v>0</v>
+      </c>
+      <c r="I391" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="H391" s="3">
-        <v>0</v>
-      </c>
-      <c r="I391" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="J391" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K391" s="4">
-        <v>3.6419921697168352E-2</v>
+        <v>5.0077392333606488E-2</v>
       </c>
       <c r="L391" s="1" t="s">
         <v>20</v>
@@ -20564,13 +20516,13 @@
         <v>14</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>1228</v>
+        <v>1017</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>47</v>
+        <v>1307</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1307</v>
+        <v>786</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>1308</v>
@@ -20582,20 +20534,19 @@
         <v>1309</v>
       </c>
       <c r="J392" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K392" s="4">
-        <v>5.0077392333606488E-2</v>
+        <v>0.1003750858471129</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>20</v>
+        <v>1310</v>
       </c>
       <c r="M392" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>